--- a/data/cleaned_data/2018_FL.xlsx
+++ b/data/cleaned_data/2018_FL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="281">
   <si>
     <t>County</t>
   </si>
@@ -223,6 +223,18 @@
     <t>Union</t>
   </si>
   <si>
+    <t>Volusia</t>
+  </si>
+  <si>
+    <t>Wakulla</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
@@ -364,6 +376,15 @@
     <t>41</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>4,415</t>
   </si>
   <si>
@@ -541,6 +562,18 @@
     <t>142</t>
   </si>
   <si>
+    <t>6,657</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
     <t>5,846</t>
   </si>
   <si>
@@ -604,9 +637,6 @@
     <t>164</t>
   </si>
   <si>
-    <t>301</t>
-  </si>
-  <si>
     <t>505</t>
   </si>
   <si>
@@ -722,6 +752,18 @@
   </si>
   <si>
     <t>161</t>
+  </si>
+  <si>
+    <t>9,967</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>1,412</t>
+  </si>
+  <si>
+    <t>348</t>
   </si>
   <si>
     <t>Gainesville, FL</t>
@@ -1172,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1206,22 +1248,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E2">
         <v>268851</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1229,22 +1271,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>28353</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G3" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1252,22 +1294,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <v>186240</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1275,13 +1317,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E5">
         <v>27752</v>
@@ -1292,22 +1334,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E6">
         <v>595203</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1315,22 +1357,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>1946107</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1338,13 +1380,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E8">
         <v>14543</v>
@@ -1355,22 +1397,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E9">
         <v>184849</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1378,22 +1420,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E10">
         <v>147682</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1401,22 +1443,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E11">
         <v>215908</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1424,22 +1466,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E12">
         <v>378201</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1447,22 +1489,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E13">
         <v>70668</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="G13" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1470,22 +1512,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E14">
         <v>37368</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1493,13 +1535,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E15">
         <v>16685</v>
@@ -1510,22 +1552,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>948652</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1533,22 +1575,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E17">
         <v>315104</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1556,22 +1598,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E18">
         <v>112085</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="G18" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1579,13 +1621,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E19">
         <v>11676</v>
@@ -1596,22 +1638,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E20">
         <v>45927</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G20" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1619,22 +1661,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E21">
         <v>18284</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1642,13 +1684,13 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E22">
         <v>13686</v>
@@ -1659,13 +1701,13 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E23">
         <v>16146</v>
@@ -1676,13 +1718,13 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E24">
         <v>14262</v>
@@ -1693,22 +1735,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E25">
         <v>27168</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1716,22 +1758,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E26">
         <v>41336</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1739,22 +1781,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E27">
         <v>190582</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1762,22 +1804,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E28">
         <v>104933</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1785,22 +1827,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E29">
         <v>1451919</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G29" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1808,13 +1850,13 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E30">
         <v>19443</v>
@@ -1825,22 +1867,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E31">
         <v>157187</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1848,13 +1890,13 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E32">
         <v>48112</v>
@@ -1865,22 +1907,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E33">
         <v>14321</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1888,13 +1930,13 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E34">
         <v>8691</v>
@@ -1905,22 +1947,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E35">
         <v>356720</v>
       </c>
       <c r="F35" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1928,22 +1970,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E36">
         <v>754470</v>
       </c>
       <c r="F36" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1951,22 +1993,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E37">
         <v>291657</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G37" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1974,22 +2016,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E38">
         <v>40798</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G38" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1997,13 +2039,13 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E39">
         <v>8427</v>
@@ -2014,13 +2056,13 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E40">
         <v>18540</v>
@@ -2031,22 +2073,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E41">
         <v>394387</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2054,22 +2096,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E42">
         <v>359062</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G42" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2077,22 +2119,22 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E43">
         <v>160742</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="G43" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2100,22 +2142,22 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E44">
         <v>2714854</v>
       </c>
       <c r="F44" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G44" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2123,22 +2165,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E45">
         <v>74757</v>
       </c>
       <c r="F45" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G45" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2146,22 +2188,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E46">
         <v>85936</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2169,22 +2211,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E47">
         <v>206934</v>
       </c>
       <c r="F47" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G47" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2192,22 +2234,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E48">
         <v>41654</v>
       </c>
       <c r="F48" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="G48" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2215,22 +2257,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E49">
         <v>1381540</v>
       </c>
       <c r="F49" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G49" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2238,22 +2280,22 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E50">
         <v>368456</v>
       </c>
       <c r="F50" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G50" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2261,22 +2303,22 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E51">
         <v>1482876</v>
       </c>
       <c r="F51" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2284,22 +2326,22 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E52">
         <v>539090</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2307,22 +2349,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E53">
         <v>973058</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G53" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2330,22 +2372,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E54">
         <v>706597</v>
       </c>
       <c r="F54" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="G54" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2353,22 +2395,22 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E55">
         <v>74043</v>
       </c>
       <c r="F55" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="G55" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2376,22 +2418,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E56">
         <v>179295</v>
       </c>
       <c r="F56" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G56" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2399,22 +2441,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E57">
         <v>426329</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G57" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2422,22 +2464,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E58">
         <v>468122</v>
       </c>
       <c r="F58" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G58" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2445,19 +2487,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G59" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2465,19 +2507,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F60" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="G60" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2485,22 +2527,22 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E61">
         <v>128719</v>
       </c>
       <c r="F61" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="G61" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2508,13 +2550,13 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E62">
         <v>44179</v>
@@ -2525,13 +2567,13 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E63">
         <v>21545</v>
@@ -2542,16 +2584,102 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E64">
         <v>15328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" t="s">
+        <v>246</v>
+      </c>
+      <c r="E65">
+        <v>546101</v>
+      </c>
+      <c r="F65" t="s">
+        <v>261</v>
+      </c>
+      <c r="G65" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66">
+        <v>32413</v>
+      </c>
+      <c r="F66" t="s">
+        <v>262</v>
+      </c>
+      <c r="G66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" t="s">
+        <v>248</v>
+      </c>
+      <c r="E67">
+        <v>70732</v>
+      </c>
+      <c r="F67" t="s">
+        <v>274</v>
+      </c>
+      <c r="G67" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68">
+        <v>24793</v>
       </c>
     </row>
   </sheetData>

--- a/data/cleaned_data/2018_FL.xlsx
+++ b/data/cleaned_data/2018_FL.xlsx
@@ -22,7 +22,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>fatalaties</t>
+    <t>fatalities</t>
   </si>
   <si>
     <t>injuries</t>
@@ -2678,6 +2678,9 @@
       <c r="E59" t="s">
         <v>243</v>
       </c>
+      <c r="F59">
+        <v>253814</v>
+      </c>
       <c r="G59" t="s">
         <v>253</v>
       </c>
@@ -2700,6 +2703,9 @@
       </c>
       <c r="E60" t="s">
         <v>244</v>
+      </c>
+      <c r="F60">
+        <v>320425</v>
       </c>
       <c r="G60" t="s">
         <v>274</v>
